--- a/w2e-core/src/test/resources/output_data/test.xlsx
+++ b/w2e-core/src/test/resources/output_data/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="335">
   <si>
     <t>N</t>
   </si>

--- a/w2e-core/src/test/resources/output_data/test.xlsx
+++ b/w2e-core/src/test/resources/output_data/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="543">
   <si>
     <t>N</t>
   </si>

--- a/w2e-core/src/test/resources/output_data/test.xlsx
+++ b/w2e-core/src/test/resources/output_data/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="559">
   <si>
     <t>N</t>
   </si>

--- a/w2e-core/src/test/resources/output_data/test.xlsx
+++ b/w2e-core/src/test/resources/output_data/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="655">
   <si>
     <t>N</t>
   </si>

--- a/w2e-core/src/test/resources/output_data/test.xlsx
+++ b/w2e-core/src/test/resources/output_data/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="743">
   <si>
     <t>N</t>
   </si>

--- a/w2e-core/src/test/resources/output_data/test.xlsx
+++ b/w2e-core/src/test/resources/output_data/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="759">
   <si>
     <t>N</t>
   </si>

--- a/w2e-core/src/test/resources/output_data/test.xlsx
+++ b/w2e-core/src/test/resources/output_data/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="767">
   <si>
     <t>N</t>
   </si>

--- a/w2e-core/src/test/resources/output_data/test.xlsx
+++ b/w2e-core/src/test/resources/output_data/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="775">
   <si>
     <t>N</t>
   </si>

--- a/w2e-core/src/test/resources/output_data/test.xlsx
+++ b/w2e-core/src/test/resources/output_data/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="783">
   <si>
     <t>N</t>
   </si>
@@ -1343,34 +1343,34 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
     </row>

--- a/w2e-core/src/test/resources/output_data/test.xlsx
+++ b/w2e-core/src/test/resources/output_data/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44" count="839">
   <si>
     <t>N</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>Row num: 3 Cell num: 1</t>
+  </si>
+  <si>
+    <t>Row num: 0 Cell num: 2</t>
+  </si>
+  <si>
+    <t>Row num: 1 Cell num: 2</t>
+  </si>
+  <si>
+    <t>Row num: 2 Cell num: 2</t>
+  </si>
+  <si>
+    <t>Row num: 3 Cell num: 2</t>
   </si>
 </sst>
 </file>
@@ -1349,6 +1361,9 @@
       <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="4">
@@ -1357,6 +1372,9 @@
       <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="4">
@@ -1365,6 +1383,9 @@
       <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="4">
@@ -1372,6 +1393,9 @@
       </c>
       <c r="B7" s="4" t="s">
         <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/w2e-core/src/test/resources/output_data/test.xlsx
+++ b/w2e-core/src/test/resources/output_data/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44" count="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44" count="923">
   <si>
     <t>N</t>
   </si>

--- a/w2e-core/src/test/resources/output_data/test.xlsx
+++ b/w2e-core/src/test/resources/output_data/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44" count="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44" count="983">
   <si>
     <t>N</t>
   </si>

--- a/w2e-core/src/test/resources/output_data/test.xlsx
+++ b/w2e-core/src/test/resources/output_data/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44" count="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44" count="1055">
   <si>
     <t>N</t>
   </si>
@@ -1358,10 +1358,10 @@
       <c r="A4" t="n" s="4">
         <v>1.0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s" s="4">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s" s="4">
         <v>40</v>
       </c>
     </row>
@@ -1369,10 +1369,10 @@
       <c r="A5" t="n" s="4">
         <v>2.0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s" s="4">
         <v>41</v>
       </c>
     </row>
@@ -1380,10 +1380,10 @@
       <c r="A6" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s" s="4">
         <v>42</v>
       </c>
     </row>
@@ -1391,10 +1391,10 @@
       <c r="A7" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s" s="4">
         <v>43</v>
       </c>
     </row>

--- a/w2e-core/src/test/resources/output_data/test.xlsx
+++ b/w2e-core/src/test/resources/output_data/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44" count="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44" count="1127">
   <si>
     <t>N</t>
   </si>

--- a/w2e-core/src/test/resources/output_data/test.xlsx
+++ b/w2e-core/src/test/resources/output_data/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44" count="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44" count="1343">
   <si>
     <t>N</t>
   </si>
